--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/15/seed4/result_data_KNN.xlsx
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.448</v>
+        <v>16.325</v>
       </c>
     </row>
     <row r="7">
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.640000000000001</v>
+        <v>5.486</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.79</v>
+        <v>-21.752</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.784</v>
+        <v>5.57</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.508</v>
+        <v>6.468999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.054</v>
+        <v>16.417</v>
       </c>
     </row>
     <row r="16">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.214</v>
+        <v>-22.025</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.358</v>
+        <v>-20.178</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.23</v>
+        <v>5.762</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.728</v>
+        <v>-21.381</v>
       </c>
       <c r="B27" t="n">
-        <v>5.904</v>
+        <v>5.62</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.602</v>
+        <v>6.109999999999999</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.7</v>
+        <v>17.286</v>
       </c>
     </row>
     <row r="34">
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-20.414</v>
+        <v>-19.982</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.402</v>
+        <v>16.522</v>
       </c>
     </row>
     <row r="36">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.416</v>
+        <v>8.376000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.640000000000001</v>
+        <v>5.991</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.566</v>
+        <v>16.531</v>
       </c>
     </row>
     <row r="39">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.696</v>
+        <v>17.124</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.746</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.528</v>
+        <v>16.766</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.308</v>
+        <v>5.927999999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.076</v>
+        <v>16.793</v>
       </c>
     </row>
     <row r="52">
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>6.45</v>
+        <v>5.368</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.776</v>
+        <v>5.705</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.51</v>
+        <v>16.471</v>
       </c>
     </row>
     <row r="58">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.732</v>
+        <v>17.673</v>
       </c>
     </row>
     <row r="64">
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.638</v>
+        <v>-21.565</v>
       </c>
       <c r="B69" t="n">
-        <v>5.473999999999999</v>
+        <v>5.723000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,7 +1621,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>4.744</v>
+        <v>5.140000000000001</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.77</v>
+        <v>17.523</v>
       </c>
     </row>
     <row r="71">
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.186</v>
+        <v>-20.66</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.154</v>
+        <v>-20.242</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.256</v>
+        <v>6.273</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.044</v>
+        <v>-21.997</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-19.754</v>
+        <v>-20.146</v>
       </c>
       <c r="B83" t="n">
-        <v>8.672000000000001</v>
+        <v>7.354000000000001</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.55</v>
+        <v>16.288</v>
       </c>
     </row>
     <row r="89">
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.986</v>
+        <v>-21.811</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.804</v>
+        <v>16.624</v>
       </c>
     </row>
     <row r="100">
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.425999999999999</v>
+        <v>7.231</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
